--- a/pa/PA5/test-report v1.1.xlsx
+++ b/pa/PA5/test-report v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vunguyen/Google Drive/Data/Courses/CS 300 - Fall 2018/Projects/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_53A7988C978DFB49766067E74FCE7747A027A87C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13F0F490-B1D5-424A-B827-B9D3B2148CCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{061EFF1E-CF8A-4C8C-A463-E4E4C0BADF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26660" windowHeight="16920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>Tester</t>
   </si>
@@ -144,154 +144,133 @@
     <t>B001</t>
   </si>
   <si>
-    <t>Can create a user account with already used username</t>
-  </si>
-  <si>
-    <t>User can sign up with a username already taken by another user</t>
-  </si>
-  <si>
-    <t>UC01</t>
+    <t>Page become blank when clicking "Add room"</t>
+  </si>
+  <si>
+    <t>The page become blank when hotel owner clicks "Add room" in create new room page</t>
+  </si>
+  <si>
+    <t>UC02</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>Room create success but no room showed up in dashboard when information missing</t>
+  </si>
+  <si>
+    <t>The room is not created when hotel owner create one with an image but no other information, but system still displayed "Create room successful"</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>Page become blank when clicking "Add room"</t>
-  </si>
-  <si>
-    <t>The page become blank when hotel owner clicks "Add room" in create new room page</t>
-  </si>
-  <si>
-    <t>UC02</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>B003</t>
   </si>
   <si>
-    <t>Room create success but no room showed up in dashboard when information missing</t>
-  </si>
-  <si>
-    <t>The room is not created when hotel owner create one with an image but no other information, but system still displayed "Create room successful"</t>
-  </si>
-  <si>
-    <t>Moderate</t>
+    <t>New room type with missing information is allowed but not updated when save changes</t>
+  </si>
+  <si>
+    <t>When hotel owner create a new room type but don't fill information and click "Save changes", system displays "Update rooms successful" but the new room type is not added when reload</t>
   </si>
   <si>
     <t>B004</t>
   </si>
   <si>
-    <t>New room type with missing information is allowed but not updated when save changes</t>
-  </si>
-  <si>
-    <t>When hotel owner create a new room type but don't fill information and click "Save changes", system displays "Update rooms successful" but the new room type is not added when reload</t>
+    <t>User can switch account type</t>
+  </si>
+  <si>
+    <t>User can switch their account type by changing in update profile page</t>
+  </si>
+  <si>
+    <t>UC06</t>
   </si>
   <si>
     <t>B005</t>
   </si>
   <si>
-    <t>User can switch account type</t>
-  </si>
-  <si>
-    <t>User can switch their account type by changing in update profile page</t>
-  </si>
-  <si>
-    <t>UC06</t>
+    <t>User can update their profile with missing information</t>
+  </si>
+  <si>
+    <t>User can update their profile with missing information, the system shows "Field is required" in missing fields, but still update the profile</t>
   </si>
   <si>
     <t>B006</t>
   </si>
   <si>
-    <t>User can change their username to already used username</t>
-  </si>
-  <si>
-    <t>User can change their username to another username that is taken by other user</t>
+    <t>An invalid avatar is displayed when user remove their avatar</t>
+  </si>
+  <si>
+    <t>When user remove their avatar in update profile page, an invalid icon is displayed as the avatar of the user</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>B007</t>
   </si>
   <si>
-    <t>User can update their profile with missing information</t>
-  </si>
-  <si>
-    <t>User can update their profile with missing information, the system shows "Field is required" in missing fields, but still update the profile</t>
+    <t>Redirect to Dashboard after manage</t>
+  </si>
+  <si>
+    <t>After create room or edit details, do not redirect to dashboard page. Click on create room 3 times will create 3 same rooms</t>
   </si>
   <si>
     <t>B008</t>
   </si>
   <si>
-    <t>An invalid avatar is displayed when user remove their avatar</t>
-  </si>
-  <si>
-    <t>When user remove their avatar in update profile page, an invalid icon is displayed as the avatar of the user</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t xml:space="preserve">Amout of hotel </t>
+  </si>
+  <si>
+    <t>Wrong amount of hotel in the landing page</t>
+  </si>
+  <si>
+    <t>UC05</t>
   </si>
   <si>
     <t>B009</t>
   </si>
   <si>
-    <t>Redirect to Dashboard after manage</t>
-  </si>
-  <si>
-    <t>After create room or edit details, do not redirect to dashboard page. Click on create room 3 times will create 3 same rooms</t>
+    <t>Sidebar not working</t>
+  </si>
+  <si>
+    <t>Search doesn't save filter after search on landing page; Filter function not working</t>
+  </si>
+  <si>
+    <t>UC04</t>
   </si>
   <si>
     <t>B010</t>
   </si>
   <si>
-    <t xml:space="preserve">Amout of hotel </t>
-  </si>
-  <si>
-    <t>Wrong amount of hotel in the landing page</t>
-  </si>
-  <si>
-    <t>UC05</t>
+    <t>Price not reduced after applying coupon code</t>
+  </si>
+  <si>
+    <t>When customer complete booking with coupon code, the price of the booking still kept at original price (undiscounted price)</t>
+  </si>
+  <si>
+    <t>UC03</t>
   </si>
   <si>
     <t>B011</t>
   </si>
   <si>
-    <t>Sidebar not working</t>
-  </si>
-  <si>
-    <t>Search doesn't save filter after search on landing page; Filter function not working</t>
-  </si>
-  <si>
-    <t>UC04</t>
+    <t>Prevent user typing to datepicker</t>
+  </si>
+  <si>
+    <t>Typing to datepicker is cause of invalid date</t>
   </si>
   <si>
     <t>B012</t>
-  </si>
-  <si>
-    <t>Price not reduced after applying coupon code</t>
-  </si>
-  <si>
-    <t>When customer complete booking with coupon code, the price of the booking still kept at original price (undiscounted price)</t>
-  </si>
-  <si>
-    <t>UC03</t>
-  </si>
-  <si>
-    <t>B013</t>
-  </si>
-  <si>
-    <t>Prevent user typing to datepicker</t>
-  </si>
-  <si>
-    <t>Typing to datepicker is cause of invalid date</t>
-  </si>
-  <si>
-    <t>B014</t>
   </si>
   <si>
     <t>Dashboard without total revenue and total customer</t>
@@ -426,7 +405,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Defect ID" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Defect Title" dataDxfId="7"/>
@@ -785,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -836,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30.75">
+    <row r="2" spans="1:9" ht="45.75">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -862,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45.75">
+    <row r="3" spans="1:9" ht="60.75">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -873,10 +852,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -888,7 +867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60.75">
+    <row r="4" spans="1:9" ht="76.5">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -899,10 +878,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -914,21 +893,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="76.5">
+    <row r="5" spans="1:9" ht="30.75">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -937,10 +916,10 @@
         <v>44928</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60.75">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -951,10 +930,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -963,24 +942,24 @@
         <v>44928</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45.75">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -1003,13 +982,13 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7">
         <v>44928</v>
@@ -1018,7 +997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45.75">
+    <row r="9" spans="1:9" ht="30.75">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1029,13 +1008,13 @@
         <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7">
         <v>44928</v>
@@ -1044,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75">
+    <row r="10" spans="1:9" ht="30.75">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1055,10 +1034,10 @@
         <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -1067,27 +1046,27 @@
         <v>44928</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45.75">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7">
         <v>44928</v>
@@ -1098,28 +1077,28 @@
     </row>
     <row r="12" spans="1:9" ht="30.75">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45.75">
@@ -1133,71 +1112,19 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30.75">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>44929</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="45.75">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>44929</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
